--- a/results/I3_N5_M2_T15_C200_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.9607425480469</v>
+        <v>250.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0690000057220459</v>
+        <v>0.03299999237060547</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.81999999764929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12.18397443193426</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.615951731952308</v>
+        <v>8.666160024559023</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11.82484646040542</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.145609779219558</v>
+        <v>9.714946283046523</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>166.151000000036</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>145.6339999999072</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>201.8819999998148</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27300000003746</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>166.1510000000724</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>201.8819999997651</v>
+        <v>117.4</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.881999999764929</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,17 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
